--- a/Eletronica/Lab01/Eletronica calculos.xlsx
+++ b/Eletronica/Lab01/Eletronica calculos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22886287\Documents\GitHub\Zaldef\Eletronica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22899140\Documents\GitHub\Zaldef\Eletronica\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6415C1D-11E5-462B-BC26-EAD5DF3421D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{668BB2A7-42D5-49B5-859B-A129EBFF42CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="RTI (DC)" sheetId="3" r:id="rId3"/>
     <sheet name="Lab 01" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -528,7 +527,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1376,7 +1375,16 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,28 +1393,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,13 +1420,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,10 +1441,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,6 +1451,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,25 +1483,10 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1553,6 +1552,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1625,19 +1625,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1999999999999998E-4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3999999999999996E-4</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6E-4</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7999999999999992E-4</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0999999999999998E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,22 +1649,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5454545454545452E-3</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6721792780520104E-3</c:v>
+                  <c:v>4.4145532940573079E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1516037834823958E-4</c:v>
+                  <c:v>1.6240233988393523E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2630485621756327E-4</c:v>
+                  <c:v>5.9744482041436736E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3252904039700829E-5</c:v>
+                  <c:v>2.1978766666481018E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0627031814024854E-5</c:v>
+                  <c:v>8.0855363989025617E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,6 +1871,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1954,19 +1955,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1999999999999998E-4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3999999999999996E-4</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6E-4</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7999999999999992E-4</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0999999999999998E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,22 +1979,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36787944117144233</c:v>
+                  <c:v>4.414553294057308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1353352832366127</c:v>
+                  <c:v>1.6240233988393524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9787068367863924E-2</c:v>
+                  <c:v>0.59744482041436742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8315638888734182E-2</c:v>
+                  <c:v>0.2197876666648102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7379469990854687E-3</c:v>
+                  <c:v>8.0855363989025625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,6 +2201,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2283,19 +2285,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1999999999999998E-4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3999999999999996E-4</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6E-4</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7999999999999992E-4</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0999999999999998E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,19 +2312,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63212055882855767</c:v>
+                  <c:v>7.585446705942692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8646647167633873</c:v>
+                  <c:v>10.375976601160648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95021293163213605</c:v>
+                  <c:v>11.402555179585633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98168436111126578</c:v>
+                  <c:v>11.780212333335189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99326205300091452</c:v>
+                  <c:v>11.919144636010975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,6 +2562,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2878,6 +2881,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7479,10 +7483,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A45E534-C03D-4FEF-B75D-69EE42E828CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -7499,44 +7503,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="86" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="K1" s="86" t="s">
+      <c r="G1" s="72"/>
+      <c r="K1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
-      <c r="P1" s="84" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="72"/>
+      <c r="P1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="81" t="s">
+      <c r="Q1" s="84"/>
+      <c r="R1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="83"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="72"/>
+      <c r="G2" s="75"/>
       <c r="K2" s="25" t="s">
         <v>21</v>
       </c>
@@ -7563,17 +7567,17 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="70" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="75"/>
       <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
@@ -7598,17 +7602,17 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="75"/>
       <c r="K4" s="11" t="s">
         <v>16</v>
       </c>
@@ -7633,17 +7637,17 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="79"/>
       <c r="K5" s="11" t="s">
         <v>17</v>
       </c>
@@ -7698,22 +7702,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="86" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="K7" s="86" t="s">
+      <c r="G7" s="72"/>
+      <c r="K7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
       <c r="O7" s="14" t="s">
         <v>32</v>
       </c>
@@ -7733,17 +7737,17 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="75"/>
       <c r="K8" s="25" t="s">
         <v>21</v>
       </c>
@@ -7772,17 +7776,17 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="70" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="75"/>
       <c r="K9" s="26" t="s">
         <v>24</v>
       </c>
@@ -7807,17 +7811,17 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="70" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="75"/>
       <c r="K10" s="27" t="s">
         <v>25</v>
       </c>
@@ -7833,17 +7837,17 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="75"/>
+      <c r="G11" s="79"/>
       <c r="K11" s="27" t="s">
         <v>26</v>
       </c>
@@ -7864,29 +7868,29 @@
         <v>0</v>
       </c>
       <c r="N12" s="20"/>
-      <c r="O12" s="77" t="s">
+      <c r="O12" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="79"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="86" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="K13" s="86" t="s">
+      <c r="G13" s="72"/>
+      <c r="K13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="O13" s="60"/>
       <c r="P13" s="61" t="s">
         <v>54</v>
@@ -7926,17 +7930,17 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="70" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="75"/>
       <c r="K15" s="19" t="s">
         <v>56</v>
       </c>
@@ -7951,17 +7955,17 @@
       <c r="Q15" s="67"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="70" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="75"/>
       <c r="K16" s="11" t="s">
         <v>57</v>
       </c>
@@ -7977,17 +7981,17 @@
       <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="70" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="75"/>
       <c r="K17" s="11" t="s">
         <v>58</v>
       </c>
@@ -8002,17 +8006,17 @@
       <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="70" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="75"/>
       <c r="K18" s="21" t="s">
         <v>20</v>
       </c>
@@ -8033,72 +8037,74 @@
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="70" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="75"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="70" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="K13:M13"/>
@@ -8115,22 +8121,20 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8140,11 +8144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D96AECE-6E6C-4298-81A5-7DD2D316BB55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8153,34 +8157,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="88"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="F3" s="37" t="s">
         <v>50</v>
       </c>
@@ -8196,20 +8200,20 @@
       <c r="J3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="88"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F4" s="46">
         <v>0</v>
@@ -8220,11 +8224,11 @@
       </c>
       <c r="H4" s="40">
         <f>(D5)*EXP(1)^(-F4/D8)</f>
-        <v>4.5454545454545452E-3</v>
+        <v>0.12</v>
       </c>
       <c r="I4" s="40">
         <f>D4*EXP(1)^(-(G4/D8))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" s="41">
         <f>D4*(1-EXP(1)^(-(G4/D8)))</f>
@@ -8244,133 +8248,133 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="94"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="47">
         <f>D4/D6</f>
-        <v>4.5454545454545452E-3</v>
+        <v>0.12</v>
       </c>
       <c r="F5" s="27">
         <v>1</v>
       </c>
       <c r="G5" s="42">
         <f>1*D8</f>
-        <v>2.1999999999999998E-4</v>
+        <v>0.04</v>
       </c>
       <c r="H5" s="42">
         <f>(D4/D6)*EXP(1)^(-G5/D8)</f>
-        <v>1.6721792780520104E-3</v>
+        <v>4.4145532940573079E-2</v>
       </c>
       <c r="I5" s="42">
         <f>D4*EXP(1)^(-(G5/D8))</f>
-        <v>0.36787944117144233</v>
+        <v>4.414553294057308</v>
       </c>
       <c r="J5" s="43">
         <f>D4*(1-EXP(1)^(-(G5/D8)))</f>
-        <v>0.63212055882855767</v>
+        <v>7.585446705942692</v>
       </c>
       <c r="L5" s="49">
         <v>2E-3</v>
       </c>
       <c r="M5" s="50">
         <f>(D5)*EXP(1)^(-L5/D8)</f>
-        <v>5.1220718412636668E-7</v>
+        <v>0.11414753094008566</v>
       </c>
       <c r="N5" s="50">
         <f>D4*EXP(1)^(-(L5/D8))</f>
-        <v>1.1268558050780067E-4</v>
+        <v>11.414753094008567</v>
       </c>
       <c r="O5" s="51">
         <f>D4*(1-EXP(1)^(-(L5/D8)))</f>
-        <v>0.99988731441949219</v>
+        <v>0.58524690599143314</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="47">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="F6" s="27">
         <v>2</v>
       </c>
       <c r="G6" s="42">
         <f>2*D8</f>
-        <v>4.3999999999999996E-4</v>
+        <v>0.08</v>
       </c>
       <c r="H6" s="42">
         <f>(D4/D6)*EXP(1)^(-G6/D8)</f>
-        <v>6.1516037834823958E-4</v>
+        <v>1.6240233988393523E-2</v>
       </c>
       <c r="I6" s="42">
         <f>D4*EXP(1)^(-(G6/D8))</f>
-        <v>0.1353352832366127</v>
+        <v>1.6240233988393524</v>
       </c>
       <c r="J6" s="43">
         <f>D4*(1-EXP(1)^(-(G6/D8)))</f>
-        <v>0.8646647167633873</v>
+        <v>10.375976601160648</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="47">
-        <v>9.9999999999999995E-7</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F7" s="27">
         <v>3</v>
       </c>
       <c r="G7" s="42">
         <f>3*D8</f>
-        <v>6.6E-4</v>
+        <v>0.12</v>
       </c>
       <c r="H7" s="42">
         <f>(D4/D6)*EXP(1)^(-G7/D8)</f>
-        <v>2.2630485621756327E-4</v>
+        <v>5.9744482041436736E-3</v>
       </c>
       <c r="I7" s="42">
         <f>D4*EXP(1)^(-(G7/D8))</f>
-        <v>4.9787068367863924E-2</v>
+        <v>0.59744482041436742</v>
       </c>
       <c r="J7" s="43">
         <f>D4*(1-EXP(1)^(-(G7/D8)))</f>
-        <v>0.95021293163213605</v>
+        <v>11.402555179585633</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="48">
         <f>D6*D7</f>
-        <v>2.1999999999999998E-4</v>
+        <v>0.04</v>
       </c>
       <c r="F8" s="27">
         <v>4</v>
       </c>
       <c r="G8" s="42">
         <f>4*D8</f>
-        <v>8.7999999999999992E-4</v>
+        <v>0.16</v>
       </c>
       <c r="H8" s="42">
         <f>(D4/D6)*EXP(1)^(-G8/D8)</f>
-        <v>8.3252904039700829E-5</v>
+        <v>2.1978766666481018E-3</v>
       </c>
       <c r="I8" s="42">
         <f>D4*EXP(1)^(-(G8/D8))</f>
-        <v>1.8315638888734182E-2</v>
+        <v>0.2197876666648102</v>
       </c>
       <c r="J8" s="43">
         <f>D4*(1-EXP(1)^(-(G8/D8)))</f>
-        <v>0.98168436111126578</v>
+        <v>11.780212333335189</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8380,19 +8384,19 @@
       </c>
       <c r="G9" s="44">
         <f>5*D8</f>
-        <v>1.0999999999999998E-3</v>
+        <v>0.2</v>
       </c>
       <c r="H9" s="44">
         <f>(D4/D6)*EXP(1)^(-G9/D8)</f>
-        <v>3.0627031814024854E-5</v>
+        <v>8.0855363989025617E-4</v>
       </c>
       <c r="I9" s="44">
         <f>D4*EXP(1)^(-(G9/D8))</f>
-        <v>6.7379469990854687E-3</v>
+        <v>8.0855363989025625E-2</v>
       </c>
       <c r="J9" s="45">
         <f>D4*(1-EXP(1)^(-(G9/D8)))</f>
-        <v>0.99326205300091452</v>
+        <v>11.919144636010975</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -8418,11 +8422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD89B72-2909-4987-9D0C-A3B20D01FD5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8431,34 +8435,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="88"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="F3" s="37" t="s">
         <v>50</v>
       </c>
@@ -8468,22 +8472,22 @@
       <c r="H3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="N3" s="86" t="s">
+      <c r="J3" s="84"/>
+      <c r="N3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="88"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="47">
         <v>1</v>
       </c>
@@ -8498,27 +8502,27 @@
         <f>D5</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="98">
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="105"/>
+      <c r="J4" s="99"/>
       <c r="N4" s="37" t="s">
         <v>49</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="85"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="94"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="47">
         <f>D4/D6</f>
         <v>4.5454545454545452E-3</v>
@@ -8534,11 +8538,11 @@
         <f>D5*EXP(1)^(-G5/D8)</f>
         <v>1.6721792780520104E-3</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="100">
         <f>D4*EXP(1)^(-(G5/D8))</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="101"/>
       <c r="N5" s="49">
         <v>0</v>
       </c>
@@ -8546,17 +8550,17 @@
         <f>D5*EXP(1)^(-N5/D8)</f>
         <v>4.5454545454545452E-3</v>
       </c>
-      <c r="P5" s="102">
+      <c r="P5" s="106">
         <f>D4*EXP(1)^(-(N5/D8))</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="103"/>
+      <c r="Q5" s="107"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="47">
         <v>220</v>
       </c>
@@ -8571,11 +8575,11 @@
         <f>D5*EXP(1)^(-G6/D8)</f>
         <v>6.1516037834823958E-4</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="100">
         <f>D4*EXP(1)^(-(G6/D8))</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="2"/>
       <c r="N6" s="49">
         <v>1E-3</v>
@@ -8584,17 +8588,17 @@
         <f>D5*EXP(1)^(-N6/D8)</f>
         <v>4.8251574827166697E-5</v>
       </c>
-      <c r="P6" s="97">
+      <c r="P6" s="102">
         <f>D4*EXP(1)^(-(N6/D8))</f>
         <v>1.0615346461976673E-2</v>
       </c>
-      <c r="Q6" s="98"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="47">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -8609,11 +8613,11 @@
         <f>D5*EXP(1)^(-G7/D8)</f>
         <v>2.2630485621756327E-4</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="100">
         <f>D4*EXP(1)^(-(G7/D8))</f>
         <v>4.9787068367863924E-2</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="101"/>
       <c r="N7" s="49">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -8621,17 +8625,17 @@
         <f>D5*EXP(1)^(-N7/D8)</f>
         <v>5.4372567198148561E-9</v>
       </c>
-      <c r="P7" s="97">
+      <c r="P7" s="102">
         <f>D4*EXP(1)^(-(N7/D8))</f>
         <v>1.1961964783592684E-6</v>
       </c>
-      <c r="Q7" s="98"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="48">
         <f>D6*D7</f>
         <v>2.1999999999999998E-4</v>
@@ -8647,11 +8651,11 @@
         <f>D5*EXP(1)^(-G8/D8)</f>
         <v>8.3252904039700829E-5</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="100">
         <f>D4*EXP(1)^(-(G8/D8))</f>
         <v>1.8315638888734182E-2</v>
       </c>
-      <c r="J8" s="107"/>
+      <c r="J8" s="101"/>
       <c r="N8" s="49">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -8659,11 +8663,11 @@
         <f>D5*EXP(1)^(-N8/D8)</f>
         <v>5.7718363883545572E-11</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="102">
         <f>D4*EXP(1)^(-(N8/D8))</f>
         <v>1.2698040054380027E-8</v>
       </c>
-      <c r="Q8" s="98"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
@@ -8678,11 +8682,11 @@
         <f>D5*EXP(1)^(-G9/D8)</f>
         <v>3.0627031814024854E-5</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="104">
         <f>D4*EXP(1)^(-(G9/D8))</f>
         <v>6.7379469990854687E-3</v>
       </c>
-      <c r="J9" s="100"/>
+      <c r="J9" s="105"/>
       <c r="N9" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8690,11 +8694,11 @@
         <f>D5*EXP(1)^(-N9/D8)</f>
         <v>6.1270042984227708E-13</v>
       </c>
-      <c r="P9" s="97">
+      <c r="P9" s="102">
         <f>D4*EXP(1)^(-(N9/D8))</f>
         <v>1.3479409456530097E-10</v>
       </c>
-      <c r="Q9" s="98"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
@@ -8705,22 +8709,25 @@
         <f>D5*EXP(1)^(-N10/D8)</f>
         <v>6.504027340177798E-15</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="102">
         <f>D4*EXP(1)^(-(N10/D8))</f>
         <v>1.4308860148391156E-12</v>
       </c>
-      <c r="Q10" s="98"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="I3:J3"/>
@@ -8730,14 +8737,11 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -8745,7 +8749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB3CA45-458D-4933-8535-F5E7E6F7ADF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
